--- a/src/main/resources/schedule.xlsx
+++ b/src/main/resources/schedule.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve"> на февраль 2024 г. </t>
   </si>
   <si>
-    <t xml:space="preserve">ОБУ</t>
+    <t xml:space="preserve">Работник поста 1</t>
   </si>
   <si>
     <t xml:space="preserve">№ п/п</t>
@@ -61,13 +61,29 @@
     <t xml:space="preserve">Дни месяца</t>
   </si>
   <si>
-    <t xml:space="preserve">Начальник смены </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дежурный механик КВ,УКВ радиостанций </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дежурный электромеханик </t>
+    <t xml:space="preserve">Работник поста 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Работник поста</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Работник поста 4</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -106,7 +122,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -166,6 +182,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="6.8"/>
@@ -354,7 +375,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -394,7 +415,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,7 +439,7 @@
   <dimension ref="A1:AJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1628,7 +1649,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
   </cols>
@@ -1749,7 +1770,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
